--- a/hw1/Adaboost/problem2_result/run results.xlsx
+++ b/hw1/Adaboost/problem2_result/run results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\Intro. to A.I\2022Spring_Artificial_Intellegence\hw1\Adaboost\problem2_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F70619-CEDE-4353-A96F-71396CA62E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2572A85-03DA-44C9-AE7A-07D65AC0E706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" xr2:uid="{9A5ACA32-30C0-4BF0-88A1-CC8645E6094B}"/>
   </bookViews>
@@ -332,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,34 +351,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,12 +713,13 @@
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="12" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -747,70 +763,70 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
-        <v>3.33</v>
-      </c>
-      <c r="D4" s="7">
-        <v>58</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="F4" s="7">
-        <v>42.33</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="H4" s="7">
-        <v>38.67</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="J4" s="7">
-        <v>31</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="L4" s="8">
-        <v>17.670000000000002</v>
+      <c r="C4" s="7">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E4" s="15">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.42330000000000001</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3.3E-3</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="I4" s="15">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="K4" s="15">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.1767</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.67</v>
-      </c>
-      <c r="E5" s="10">
-        <v>6.67</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2.33</v>
-      </c>
-      <c r="G5" s="10">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2.67</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>4.33</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.67</v>
+      <c r="C5" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="L5" s="18">
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -818,34 +834,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>88.83</v>
-      </c>
-      <c r="D6" s="10">
-        <v>69.67</v>
-      </c>
-      <c r="E6" s="10">
-        <v>96.33</v>
-      </c>
-      <c r="F6" s="10">
-        <v>77.67</v>
-      </c>
-      <c r="G6" s="10">
-        <v>97.83</v>
-      </c>
-      <c r="H6" s="10">
-        <v>80.16</v>
-      </c>
-      <c r="I6" s="10">
-        <v>98.5</v>
-      </c>
-      <c r="J6" s="10">
-        <v>84</v>
-      </c>
-      <c r="K6" s="10">
-        <v>97.5</v>
-      </c>
-      <c r="L6" s="11">
-        <v>90.83</v>
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.9083</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,104 +869,104 @@
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>3.33</v>
-      </c>
-      <c r="D7" s="10">
-        <v>56</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10">
-        <v>38.67</v>
-      </c>
-      <c r="G7" s="10">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10">
-        <v>32.67</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4.67</v>
-      </c>
-      <c r="J7" s="10">
-        <v>23.33</v>
-      </c>
-      <c r="K7" s="10">
-        <v>3.67</v>
-      </c>
-      <c r="L7" s="11">
-        <v>11</v>
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10">
-        <v>12.33</v>
-      </c>
-      <c r="F8" s="10">
-        <v>7.33</v>
-      </c>
-      <c r="G8" s="10">
-        <v>9.33</v>
-      </c>
-      <c r="H8" s="10">
-        <v>4.67</v>
-      </c>
-      <c r="I8" s="10">
-        <v>9.33</v>
-      </c>
-      <c r="J8" s="10">
-        <v>8.33</v>
-      </c>
-      <c r="K8" s="10">
-        <v>10</v>
-      </c>
-      <c r="L8" s="11">
-        <v>6.67</v>
+      <c r="C8" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
-        <v>90.33</v>
+      <c r="C9" s="10">
+        <v>0.90329999999999999</v>
       </c>
       <c r="D9" s="14">
-        <v>70</v>
-      </c>
-      <c r="E9" s="14">
-        <v>92.33</v>
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.92330000000000001</v>
       </c>
       <c r="F9" s="14">
-        <v>77</v>
-      </c>
-      <c r="G9" s="14">
-        <v>93.33</v>
-      </c>
-      <c r="H9" s="14">
-        <v>81.33</v>
+        <v>0.77</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.81330000000000002</v>
       </c>
       <c r="I9" s="14">
-        <v>93</v>
-      </c>
-      <c r="J9" s="14">
-        <v>84.16</v>
-      </c>
-      <c r="K9" s="14">
-        <v>93.16</v>
-      </c>
-      <c r="L9" s="15">
-        <v>91.16</v>
+        <v>0.93</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.91159999999999997</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
@@ -961,6 +977,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>